--- a/Datascraping/output_excel_files_new/National Institute of Technology Silchar_tables.xlsx
+++ b/Datascraping/output_excel_files_new/National Institute of Technology Silchar_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,12 +568,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>488</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>458</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -784,32 +784,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>522</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>691</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>178</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>503</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>243</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>161</t>
         </is>
       </c>
     </row>
@@ -956,8 +956,8 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>660000(Six Lakh Sixty-Thousand)</t>
+          <t>660000(six Lakh sixty+thousand)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1012,8 +1012,8 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>750000(Seven Lakh-Fifty Thousand)</t>
+          <t>750000(seven lakh fifty+thousand)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1100000(Eleven lakhs)</t>
+          <t>1100000(eleven lakhs)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>390</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,23 +1161,23 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>261</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>122</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>530000(Five Lakh-Thirty Thousand)</t>
+          <t>510000(five lakh ten+thousand)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>85</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>428</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1209,23 +1209,23 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>265</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>128</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>650000(Six Lakh Fifty-Thousand)</t>
+          <t>570000(five lakh+seventy thousand)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>88</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1242,12 +1242,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>458</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1257,22 +1257,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>337</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>600000(Six lakhs)</t>
+          <t>600000(six lakhs)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>59</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>547</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1553,7 +1553,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Library ( Books, Journals and e-Resources only)</t>
+          <t>Library</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1565,13 +1565,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t>57246829 (Five Crore Seventy Two Lakh Forty Six Thousand-Eight Hundred Twenty Nine)</t>
+Eight Hundred Twenty Nine )</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>47342901 (Four Crore Seventy Three Lakh Forty Two-Thousand Nine Hundred One)</t>
+Thousand Nine Hundred One )</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -1587,7 +1587,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>New Equipment and software for Laboratories</t>
+          <t>New Equipment for Laboratories</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1599,13 +1599,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t>65280658 (Six Crore Fifty Two Lakh Eighty Thousand Six-Hundred Fifty Eight)</t>
+Hundred Fifty Eight )</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>62812526 (Six Crore Twenty Eight Lakh Twelve Thousand Five-Hundred Twenty Six)</t>
+Hundred Twenty Six )</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1633,13 +1633,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t>32404662 (Three Crore Twenty Four Lakh Four Thousand Six-Hundred Sixty Two)</t>
+Hundred Sixty Two )</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>45377482 (Four Crore Fifty Three Lakh Seventy Seven-Thousand Four Hundred Eighty Two)</t>
+Thousand Four Hundred Eighty Two )</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -1655,27 +1655,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (For setting up-classrooms, seminar hall, conference hall , library, Lab, Engg-workshops excluding expenditure on Land and Building)</t>
+          <t>Studios</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>44063602 (Four Crore Forty Lakh Sixty Three Thousand Six-Hundred Two )</t>
+          <t>0 (zero)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>64697317 (Six Crore Forty Six Lakh Ninety Seven Thousand-Three Hundred Seventeen)</t>
+          <t>4598559 (Forty Five Lakh Ninety Eight Thousand Five Hundred+Fifty Nine )</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>78650849 (Seven Crore Eighty Six Lakh Fifty Thousand Eight-Hundred Forty Nine)</t>
+          <t>0 (zero)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1691,22 +1687,26 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Other expenditure on creation of Capital Assets (excluding+expenditure on Land and Building)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>44063602 (Four Crore Forty Lakh Sixty Three Thousand Six+Hundred Two )</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>64697317 (Six Crore Forty Six Lakh Ninety Seven Thousand+Three Hundred Seventeen )</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>78650849 (Seven Crore Eighty Six Lakh Fifty Thousand Eight+Hundred Forty Nine )</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1720,20 +1720,24 @@
       <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1747,14 +1751,22 @@
       <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1768,27 +1780,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>687260400 (Sixty Eight Crore Seventy Two Lakh Sixty-Thousand Four Hundred )</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>677312911 (Sixty Seven Crore Seventy Three Lakh Twelve-Thousand Nine Hundred Eleven)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>635525433 (Sixty Three Crore Fifty Five Lakh Twenty Five-Thousand Four Hundred Thirty Three)</t>
-        </is>
-      </c>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1802,27 +1799,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>420066763 (Forty Two Crore Sixty Six Thousand Seven-Hundred Sixty Three )</t>
+          <t>687260400 (Sixty Eight Crore Seventy Two Lakh Sixty+Thousand Four Hundred )</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>365492327 (Thirty Six Crore Fifty Four Lakh Ninety Two-Thousand Three Hundred Twenty Seven)</t>
+          <t>678276911 (Sixty Seven Crore Eighty Two Lakh Seventy Six+Thousand Nine Hundred Eleven )</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>326611202 (Thirty Two Crore Sixty Six Lakh Eleven Thousand-Two Hundred Two)</t>
+          <t>635525433 (Sixty Three Crore Fifty Five Lakh Twenty Five+Thousand Four Hundred Thirty Three )</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1838,25 +1833,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>17602092 (One Crore Seventy Six Lakh Two Thousand Ninety-Two )</t>
+          <t>420066763 (Forty Two Crore Sixty Six Thousand Seven+Hundred Sixty Three )</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17840827 (One Crore Seventy Eight Lakh Forty Thousand-Eight Hundred Twenty Seven)</t>
+          <t>365492327 (Thirty Six Crore Fifty Four Lakh Ninety Two+Thousand Three Hundred Twenty Seven )</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>27244695 (Two Crore Seventy Two Lakh Forty Four Thousand-Six Hundred Ninety Five)</t>
+          <t>326611202 (Thirty Two Crore Sixty Six Lakh Eleven Thousand+Two Hundred Two )</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1872,22 +1869,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Seminars/Conferences/Workshops</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>17602092 (One Crore Seventy Six Lakh Two Thousand Ninety+Two )</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>17840827 (One Crore Seventy Eight Lakh Forty Thousand+Eight Hundred Twenty Seven )</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>27244695 (Two Crore Seventy Two Lakh Forty Four Thousand+Six Hundred Ninety Five )</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1903,22 +1903,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -1934,22 +1934,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>Total no. of Sponsored Projects</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -1965,22 +1965,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Total no. of Funding Agencies</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>115848880</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>82823718</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>50198962</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -1996,25 +1996,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Eleven Crore Fifty Eight Lakh Forty Eight Thousand Eight-Hundred Eighty</t>
+          <t>115848880</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Eight Crore Twenty Eight Lakh Twenty Three Thousand Seven-Hundred Eighteen rupees only</t>
+          <t>82823718</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Five Crore One Lakh Ninety Eight Thousand Nine Hundred-Sixty Two</t>
+          <t>50198962</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2030,22 +2027,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>Eleven Crore Fifty Eight Lakh Forty Eight Thousand Eight+Hundred Eighty</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>Eight Crore Twenty Eight Lakh Twenty Three Thousand Seven+Hundred Eighteen</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>Five Crore One Lakh Ninety Eight Thousand Nine Hundred+Sixty Two</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2061,22 +2061,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2092,22 +2092,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Total no. of Client Organizations</t>
+          <t>Total no. of Consultancy Projects</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>236</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -2123,22 +2123,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Total no. of Client Organizations</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6929084</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20201865</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6295105</t>
+          <t>95</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2154,22 +2154,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sixty Nine Lakh Twenty Nine Thousand Eighty Four</t>
+          <t>6929084</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Two Crore Two Lakh One Thousand Eight Hundred Sixty Five</t>
+          <t>20201865</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sixty Two Lakh Ninety Five Thousand One Hundred Five</t>
+          <t>6295105</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -2185,16 +2185,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+          <t>Sixty Nine Lakh Twenty Nine Thousand Eighty Four</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Two Crore Two Lakh One Thousand Eight Hundred Sixty Five</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sixty Two Lakh Ninety Five Thousand One Hundred Five</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
@@ -2208,17 +2216,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -2232,16 +2247,25 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
+          <t>Total no. of Executive Development Programs/ Management+Development Programs</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
@@ -2255,16 +2279,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Number of faculty members entered</t>
+          <t>Total no. of Participants</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -2275,6 +2307,162 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging+&amp; Boarding Charges)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Total Annual Earnings in Words</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Number of faculty members entered</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
